--- a/frontend/public/templates/admin-master-template.xlsx
+++ b/frontend/public/templates/admin-master-template.xlsx
@@ -481,7 +481,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -499,6 +499,30 @@
       <c r="D1" t="str">
         <v>Class</v>
       </c>
+      <c r="E1" t="str">
+        <v>Password</v>
+      </c>
+      <c r="F1" t="str">
+        <v>RollNo</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Address</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Gender</v>
+      </c>
+      <c r="J1" t="str">
+        <v>BloodGroup</v>
+      </c>
+      <c r="K1" t="str">
+        <v>ParentName</v>
+      </c>
+      <c r="L1" t="str">
+        <v>ParentPhone</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -513,17 +537,41 @@
       <c r="D2" t="str">
         <v>IT-2-4-A</v>
       </c>
+      <c r="E2" t="str">
+        <v>StudentPass123!</v>
+      </c>
+      <c r="F2" t="str">
+        <v>001</v>
+      </c>
+      <c r="G2" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="H2" t="str">
+        <v>123 Main St</v>
+      </c>
+      <c r="I2" t="str">
+        <v>female</v>
+      </c>
+      <c r="J2" t="str">
+        <v>O+</v>
+      </c>
+      <c r="K2" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="L2" t="str">
+        <v>0987654321</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -542,10 +590,16 @@
         <v>DepartmentCode</v>
       </c>
       <c r="E1" t="str">
-        <v>Role</v>
+        <v>Password</v>
       </c>
       <c r="F1" t="str">
-        <v>Password</v>
+        <v>Designation</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Qualification</v>
       </c>
     </row>
     <row r="2">
@@ -562,15 +616,21 @@
         <v>IT</v>
       </c>
       <c r="E2" t="str">
-        <v>staff</v>
+        <v>StaffPass123!</v>
       </c>
       <c r="F2" t="str">
-        <v>Password1!</v>
+        <v>Assistant Professor</v>
+      </c>
+      <c r="G2" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="H2" t="str">
+        <v>M.Tech Computer Science</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
   </ignoredErrors>
 </worksheet>
 </file>
